--- a/Code/Results/Cases/Case_2_173/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_173/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.028995819599324</v>
+        <v>1.07499425108742</v>
       </c>
       <c r="D2">
-        <v>1.046617641479942</v>
+        <v>1.076253472388214</v>
       </c>
       <c r="E2">
-        <v>1.03282693751254</v>
+        <v>1.07348554169521</v>
       </c>
       <c r="F2">
-        <v>1.049180282004003</v>
+        <v>1.086003307877306</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06183935223944</v>
+        <v>1.054802528083302</v>
       </c>
       <c r="J2">
-        <v>1.050342555708422</v>
+        <v>1.079900940123972</v>
       </c>
       <c r="K2">
-        <v>1.057463587455239</v>
+        <v>1.078937891146819</v>
       </c>
       <c r="L2">
-        <v>1.04384712730344</v>
+        <v>1.076177276851737</v>
       </c>
       <c r="M2">
-        <v>1.059994477681689</v>
+        <v>1.088662275811955</v>
       </c>
       <c r="N2">
-        <v>1.051834162613503</v>
+        <v>1.081434523325317</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.038588792882273</v>
+        <v>1.076787220193332</v>
       </c>
       <c r="D3">
-        <v>1.054264239504067</v>
+        <v>1.077675242730861</v>
       </c>
       <c r="E3">
-        <v>1.040580485388305</v>
+        <v>1.074939850313757</v>
       </c>
       <c r="F3">
-        <v>1.057268653216594</v>
+        <v>1.087528996447818</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065438078079972</v>
+        <v>1.055339866425509</v>
       </c>
       <c r="J3">
-        <v>1.05808004507205</v>
+        <v>1.081349265876032</v>
       </c>
       <c r="K3">
-        <v>1.064246868587293</v>
+        <v>1.080175653059034</v>
       </c>
       <c r="L3">
-        <v>1.050719182080456</v>
+        <v>1.077446962386984</v>
       </c>
       <c r="M3">
-        <v>1.067217681675092</v>
+        <v>1.090005565242516</v>
       </c>
       <c r="N3">
-        <v>1.05958264009953</v>
+        <v>1.08288490586607</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.044568321784163</v>
+        <v>1.077944355623699</v>
       </c>
       <c r="D4">
-        <v>1.059032063325441</v>
+        <v>1.078592360279645</v>
       </c>
       <c r="E4">
-        <v>1.045412035065355</v>
+        <v>1.075877320550639</v>
       </c>
       <c r="F4">
-        <v>1.062312635403177</v>
+        <v>1.08851316447669</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067665157219956</v>
+        <v>1.055684653773225</v>
       </c>
       <c r="J4">
-        <v>1.06289681207501</v>
+        <v>1.082283067181963</v>
       </c>
       <c r="K4">
-        <v>1.068466637217611</v>
+        <v>1.08097317958819</v>
       </c>
       <c r="L4">
-        <v>1.054991611274891</v>
+        <v>1.078264453329895</v>
       </c>
       <c r="M4">
-        <v>1.071712962125867</v>
+        <v>1.090871201127672</v>
       </c>
       <c r="N4">
-        <v>1.064406247464125</v>
+        <v>1.083820033276965</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.047031396355858</v>
+        <v>1.078430104880324</v>
       </c>
       <c r="D5">
-        <v>1.060996237253359</v>
+        <v>1.078977243172409</v>
       </c>
       <c r="E5">
-        <v>1.047401740905274</v>
+        <v>1.076270593194879</v>
       </c>
       <c r="F5">
-        <v>1.064390748619704</v>
+        <v>1.088926190814145</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0685785969015</v>
+        <v>1.055828912229495</v>
       </c>
       <c r="J5">
-        <v>1.064879365962093</v>
+        <v>1.08267484558357</v>
       </c>
       <c r="K5">
-        <v>1.070202720380849</v>
+        <v>1.08130765999106</v>
       </c>
       <c r="L5">
-        <v>1.056748725741908</v>
+        <v>1.078607162403636</v>
       </c>
       <c r="M5">
-        <v>1.073562830514578</v>
+        <v>1.091234274223479</v>
       </c>
       <c r="N5">
-        <v>1.06639161680513</v>
+        <v>1.08421236804884</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.047442086300964</v>
+        <v>1.07851162312367</v>
       </c>
       <c r="D6">
-        <v>1.061323750332854</v>
+        <v>1.079041827568053</v>
       </c>
       <c r="E6">
-        <v>1.047733468602382</v>
+        <v>1.076336576545025</v>
       </c>
       <c r="F6">
-        <v>1.064737270549279</v>
+        <v>1.08899549804115</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068730669217717</v>
+        <v>1.055853093552442</v>
       </c>
       <c r="J6">
-        <v>1.065209840839809</v>
+        <v>1.082740580860722</v>
       </c>
       <c r="K6">
-        <v>1.070492065631353</v>
+        <v>1.081363774153669</v>
       </c>
       <c r="L6">
-        <v>1.057041538391684</v>
+        <v>1.07866464859745</v>
       </c>
       <c r="M6">
-        <v>1.073871165273659</v>
+        <v>1.091295186885361</v>
       </c>
       <c r="N6">
-        <v>1.066722560995079</v>
+        <v>1.084278196677624</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.044601428072298</v>
+        <v>1.077950848998573</v>
       </c>
       <c r="D7">
-        <v>1.05905846316615</v>
+        <v>1.078597505732851</v>
       </c>
       <c r="E7">
-        <v>1.045438780941391</v>
+        <v>1.075882578760422</v>
       </c>
       <c r="F7">
-        <v>1.062340565979691</v>
+        <v>1.088518686157401</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067677450485971</v>
+        <v>1.055686584065774</v>
       </c>
       <c r="J7">
-        <v>1.062923465931776</v>
+        <v>1.082288305236683</v>
       </c>
       <c r="K7">
-        <v>1.068489980487464</v>
+        <v>1.080977652058563</v>
       </c>
       <c r="L7">
-        <v>1.055015239867479</v>
+        <v>1.078269036396178</v>
       </c>
       <c r="M7">
-        <v>1.071737833627611</v>
+        <v>1.090876055812469</v>
       </c>
       <c r="N7">
-        <v>1.064432939172425</v>
+        <v>1.083825278770323</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.032287400071216</v>
+        <v>1.075600831711739</v>
       </c>
       <c r="D8">
-        <v>1.049240959721094</v>
+        <v>1.076734566418601</v>
       </c>
       <c r="E8">
-        <v>1.035487566882272</v>
+        <v>1.073977778383468</v>
       </c>
       <c r="F8">
-        <v>1.051955011909138</v>
+        <v>1.086519561997579</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063077528322813</v>
+        <v>1.054984729332696</v>
       </c>
       <c r="J8">
-        <v>1.052998741977124</v>
+        <v>1.080391112805922</v>
       </c>
       <c r="K8">
-        <v>1.059792816497246</v>
+        <v>1.079356907016283</v>
       </c>
       <c r="L8">
-        <v>1.04620737082744</v>
+        <v>1.076607225630615</v>
       </c>
       <c r="M8">
-        <v>1.06247436996194</v>
+        <v>1.089116991938978</v>
       </c>
       <c r="N8">
-        <v>1.054494120971376</v>
+        <v>1.0819253921087</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008647147484027</v>
+        <v>1.071435821654752</v>
       </c>
       <c r="D9">
-        <v>1.030413741319037</v>
+        <v>1.073429358209535</v>
       </c>
       <c r="E9">
-        <v>1.016380274973579</v>
+        <v>1.070593364852069</v>
       </c>
       <c r="F9">
-        <v>1.032044154659244</v>
+        <v>1.082972854030022</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054117664117974</v>
+        <v>1.053725455071408</v>
       </c>
       <c r="J9">
-        <v>1.033898204924036</v>
+        <v>1.077021667396773</v>
       </c>
       <c r="K9">
-        <v>1.043031922627191</v>
+        <v>1.076474483700843</v>
       </c>
       <c r="L9">
-        <v>1.029213068523639</v>
+        <v>1.073647075865999</v>
       </c>
       <c r="M9">
-        <v>1.044637883792062</v>
+        <v>1.085989447744839</v>
       </c>
       <c r="N9">
-        <v>1.035366458964809</v>
+        <v>1.078551161700589</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9912556223111084</v>
+        <v>1.068641998734597</v>
       </c>
       <c r="D10">
-        <v>1.016589872969834</v>
+        <v>1.071210011937267</v>
       </c>
       <c r="E10">
-        <v>1.002336136471287</v>
+        <v>1.068317465088462</v>
       </c>
       <c r="F10">
-        <v>1.017428617877919</v>
+        <v>1.080591402605445</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047443717902769</v>
+        <v>1.052870439025612</v>
       </c>
       <c r="J10">
-        <v>1.019820525487243</v>
+        <v>1.074756812588438</v>
       </c>
       <c r="K10">
-        <v>1.03066591616141</v>
+        <v>1.074534352731238</v>
       </c>
       <c r="L10">
-        <v>1.016663338970957</v>
+        <v>1.071651436371583</v>
       </c>
       <c r="M10">
-        <v>1.031490165447583</v>
+        <v>1.083884897773128</v>
       </c>
       <c r="N10">
-        <v>1.021268787608484</v>
+        <v>1.076283090538643</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.983245924308675</v>
+        <v>1.067427945022333</v>
       </c>
       <c r="D11">
-        <v>1.010233233928214</v>
+        <v>1.070245073660511</v>
       </c>
       <c r="E11">
-        <v>0.9958753109813365</v>
+        <v>1.067327128851797</v>
       </c>
       <c r="F11">
-        <v>1.010708978413442</v>
+        <v>1.079555991060656</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044352114765682</v>
+        <v>1.052496450167042</v>
       </c>
       <c r="J11">
-        <v>1.013332692873657</v>
+        <v>1.07377151521418</v>
       </c>
       <c r="K11">
-        <v>1.024964712746309</v>
+        <v>1.073689700915334</v>
       </c>
       <c r="L11">
-        <v>1.010875434364662</v>
+        <v>1.070781854642414</v>
       </c>
       <c r="M11">
-        <v>1.025431725939398</v>
+        <v>1.082968795997052</v>
       </c>
       <c r="N11">
-        <v>1.014771741528423</v>
+        <v>1.075296393929098</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9801890703372018</v>
+        <v>1.066976323983375</v>
       </c>
       <c r="D12">
-        <v>1.007809126544485</v>
+        <v>1.069886044767402</v>
       </c>
       <c r="E12">
-        <v>0.9934111080225906</v>
+        <v>1.066958527586694</v>
       </c>
       <c r="F12">
-        <v>1.008146609741673</v>
+        <v>1.079170741564424</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043169709326203</v>
+        <v>1.052356961892409</v>
       </c>
       <c r="J12">
-        <v>1.010856190574576</v>
+        <v>1.073404824398138</v>
       </c>
       <c r="K12">
-        <v>1.022788229841529</v>
+        <v>1.073375260111201</v>
       </c>
       <c r="L12">
-        <v>1.008665638932755</v>
+        <v>1.070458017792088</v>
       </c>
       <c r="M12">
-        <v>1.023119380346563</v>
+        <v>1.082627775715854</v>
       </c>
       <c r="N12">
-        <v>1.012291722312018</v>
+        <v>1.074929182370038</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9808486499321695</v>
+        <v>1.067073228754322</v>
       </c>
       <c r="D13">
-        <v>1.008332087238697</v>
+        <v>1.06996308543163</v>
       </c>
       <c r="E13">
-        <v>0.9939427336852406</v>
+        <v>1.067037627849774</v>
       </c>
       <c r="F13">
-        <v>1.008699390079132</v>
+        <v>1.079253408638895</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043424947913701</v>
+        <v>1.052386908606789</v>
       </c>
       <c r="J13">
-        <v>1.011390564516756</v>
+        <v>1.073483513103566</v>
       </c>
       <c r="K13">
-        <v>1.023257876007351</v>
+        <v>1.073442740613282</v>
       </c>
       <c r="L13">
-        <v>1.009142481333197</v>
+        <v>1.070527519956497</v>
       </c>
       <c r="M13">
-        <v>1.023618319276518</v>
+        <v>1.082700959428784</v>
       </c>
       <c r="N13">
-        <v>1.012826855126489</v>
+        <v>1.075007982822453</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9829949734472323</v>
+        <v>1.067390627617875</v>
       </c>
       <c r="D14">
-        <v>1.010034187994843</v>
+        <v>1.070215408707119</v>
       </c>
       <c r="E14">
-        <v>0.9956729796313846</v>
+        <v>1.06729667547731</v>
       </c>
       <c r="F14">
-        <v>1.010498576179635</v>
+        <v>1.079524159604238</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044255095493825</v>
+        <v>1.052484931735887</v>
       </c>
       <c r="J14">
-        <v>1.013129393748038</v>
+        <v>1.07374121896508</v>
       </c>
       <c r="K14">
-        <v>1.024786047080929</v>
+        <v>1.073663723492252</v>
       </c>
       <c r="L14">
-        <v>1.010694037840871</v>
+        <v>1.070755103322168</v>
       </c>
       <c r="M14">
-        <v>1.025241896734013</v>
+        <v>1.082940622325767</v>
       </c>
       <c r="N14">
-        <v>1.014568153694726</v>
+        <v>1.075266054655849</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9843062454617871</v>
+        <v>1.067586098491865</v>
       </c>
       <c r="D15">
-        <v>1.01107432357492</v>
+        <v>1.070370792409324</v>
       </c>
       <c r="E15">
-        <v>0.9967302692383441</v>
+        <v>1.067456183878282</v>
       </c>
       <c r="F15">
-        <v>1.011598062260107</v>
+        <v>1.079690891378663</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044761941313256</v>
+        <v>1.052545250990933</v>
       </c>
       <c r="J15">
-        <v>1.014191657859973</v>
+        <v>1.073899905808226</v>
       </c>
       <c r="K15">
-        <v>1.025719588651739</v>
+        <v>1.073799785221178</v>
       </c>
       <c r="L15">
-        <v>1.011641840276032</v>
+        <v>1.070895213763973</v>
       </c>
       <c r="M15">
-        <v>1.026233789772213</v>
+        <v>1.083088188116858</v>
       </c>
       <c r="N15">
-        <v>1.015631926343543</v>
+        <v>1.075424966852515</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.991776318491169</v>
+        <v>1.068722478981061</v>
       </c>
       <c r="D16">
-        <v>1.017003340820771</v>
+        <v>1.071273967292176</v>
       </c>
       <c r="E16">
-        <v>1.002756327031271</v>
+        <v>1.06838308670352</v>
       </c>
       <c r="F16">
-        <v>1.017865719348279</v>
+        <v>1.080660028995699</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047644343817815</v>
+        <v>1.052895179587184</v>
       </c>
       <c r="J16">
-        <v>1.02024221413796</v>
+        <v>1.074822105215418</v>
       </c>
       <c r="K16">
-        <v>1.031036437638365</v>
+        <v>1.074590312170332</v>
       </c>
       <c r="L16">
-        <v>1.017039460849326</v>
+        <v>1.071709031347483</v>
       </c>
       <c r="M16">
-        <v>1.031883971759722</v>
+        <v>1.083945593609326</v>
       </c>
       <c r="N16">
-        <v>1.021691075105454</v>
+        <v>1.076348475888643</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9963275407950416</v>
+        <v>1.069434132558719</v>
       </c>
       <c r="D17">
-        <v>1.020618469093749</v>
+        <v>1.071839437925339</v>
       </c>
       <c r="E17">
-        <v>1.006429916620933</v>
+        <v>1.068963196414447</v>
       </c>
       <c r="F17">
-        <v>1.021687602980279</v>
+        <v>1.081266800092816</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049395961424508</v>
+        <v>1.053113668586971</v>
       </c>
       <c r="J17">
-        <v>1.023927581405705</v>
+        <v>1.075399333422478</v>
       </c>
       <c r="K17">
-        <v>1.034274388452261</v>
+        <v>1.075084957497684</v>
       </c>
       <c r="L17">
-        <v>1.020326137612571</v>
+        <v>1.072218045702767</v>
       </c>
       <c r="M17">
-        <v>1.035325763324167</v>
+        <v>1.084482120702832</v>
       </c>
       <c r="N17">
-        <v>1.025381676017436</v>
+        <v>1.076926523825965</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9989367160205825</v>
+        <v>1.069848813559334</v>
       </c>
       <c r="D18">
-        <v>1.022691889988856</v>
+        <v>1.07216888759602</v>
       </c>
       <c r="E18">
-        <v>1.008536592118269</v>
+        <v>1.069301097134156</v>
       </c>
       <c r="F18">
-        <v>1.023879701265311</v>
+        <v>1.081620312648629</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050398471451566</v>
+        <v>1.053240747098501</v>
       </c>
       <c r="J18">
-        <v>1.026039953213678</v>
+        <v>1.075735578122712</v>
       </c>
       <c r="K18">
-        <v>1.036130099511458</v>
+        <v>1.075373036511914</v>
       </c>
       <c r="L18">
-        <v>1.022209582010347</v>
+        <v>1.072514419743662</v>
       </c>
       <c r="M18">
-        <v>1.037298588900273</v>
+        <v>1.084794604090903</v>
       </c>
       <c r="N18">
-        <v>1.027497047635669</v>
+        <v>1.077263246032242</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9998189296756049</v>
+        <v>1.069990139358336</v>
       </c>
       <c r="D19">
-        <v>1.023393097401247</v>
+        <v>1.072281157450482</v>
       </c>
       <c r="E19">
-        <v>1.009248997398472</v>
+        <v>1.069416233758728</v>
       </c>
       <c r="F19">
-        <v>1.024621059820076</v>
+        <v>1.081740782795398</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050737150756092</v>
+        <v>1.053284016325874</v>
       </c>
       <c r="J19">
-        <v>1.026754112122425</v>
+        <v>1.075850154270537</v>
       </c>
       <c r="K19">
-        <v>1.036757447460887</v>
+        <v>1.075471189932302</v>
       </c>
       <c r="L19">
-        <v>1.022846270818743</v>
+        <v>1.072615386983813</v>
       </c>
       <c r="M19">
-        <v>1.037965577297565</v>
+        <v>1.084901074649998</v>
       </c>
       <c r="N19">
-        <v>1.028212220731981</v>
+        <v>1.077377984891338</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9958440058415339</v>
+        <v>1.069357821881264</v>
       </c>
       <c r="D20">
-        <v>1.020234291362173</v>
+        <v>1.071778807668221</v>
       </c>
       <c r="E20">
-        <v>1.006039554462795</v>
+        <v>1.068901004604227</v>
       </c>
       <c r="F20">
-        <v>1.021281443511256</v>
+        <v>1.081201741488132</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04921003797235</v>
+        <v>1.053090264323452</v>
       </c>
       <c r="J20">
-        <v>1.023536079508545</v>
+        <v>1.075337448212113</v>
       </c>
       <c r="K20">
-        <v>1.033930437727462</v>
+        <v>1.075031932269189</v>
       </c>
       <c r="L20">
-        <v>1.019977030454852</v>
+        <v>1.072163487739561</v>
       </c>
       <c r="M20">
-        <v>1.034960129126468</v>
+        <v>1.084424604506828</v>
       </c>
       <c r="N20">
-        <v>1.024989618142676</v>
+        <v>1.076864550731503</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9823652775672655</v>
+        <v>1.067297180149067</v>
       </c>
       <c r="D21">
-        <v>1.009534765334634</v>
+        <v>1.070141122691824</v>
       </c>
       <c r="E21">
-        <v>0.9951653080318995</v>
+        <v>1.067220413143484</v>
       </c>
       <c r="F21">
-        <v>1.009970662398696</v>
+        <v>1.079444448312054</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044011611209566</v>
+        <v>1.052456082219206</v>
       </c>
       <c r="J21">
-        <v>1.012619260843316</v>
+        <v>1.073665350674849</v>
       </c>
       <c r="K21">
-        <v>1.024337722559851</v>
+        <v>1.073598668966095</v>
       </c>
       <c r="L21">
-        <v>1.010238857704632</v>
+        <v>1.070688108883408</v>
       </c>
       <c r="M21">
-        <v>1.024765568040443</v>
+        <v>1.082870068109349</v>
       </c>
       <c r="N21">
-        <v>1.014057296342766</v>
+        <v>1.075190078623944</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9734116734331475</v>
+        <v>1.065997701299823</v>
       </c>
       <c r="D22">
-        <v>1.002438528429431</v>
+        <v>1.069107920779774</v>
       </c>
       <c r="E22">
-        <v>0.9879511057135011</v>
+        <v>1.06615943239332</v>
       </c>
       <c r="F22">
-        <v>1.00247002976771</v>
+        <v>1.078335790415402</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040543751496943</v>
+        <v>1.052054032846256</v>
       </c>
       <c r="J22">
-        <v>1.00536489610674</v>
+        <v>1.072609934959805</v>
       </c>
       <c r="K22">
-        <v>1.017961831885341</v>
+        <v>1.072693465185253</v>
       </c>
       <c r="L22">
-        <v>1.003765092947379</v>
+        <v>1.06975563792634</v>
       </c>
       <c r="M22">
-        <v>1.01799271318148</v>
+        <v>1.081888384260129</v>
       </c>
       <c r="N22">
-        <v>1.006792629576177</v>
+        <v>1.074133164097527</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9782073293191093</v>
+        <v>1.066686953317654</v>
       </c>
       <c r="D23">
-        <v>1.006238169881146</v>
+        <v>1.069655979755487</v>
       </c>
       <c r="E23">
-        <v>0.9918140755703994</v>
+        <v>1.0667222940414</v>
       </c>
       <c r="F23">
-        <v>1.006486102143004</v>
+        <v>1.078923874583742</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042402478706444</v>
+        <v>1.05226748333084</v>
       </c>
       <c r="J23">
-        <v>1.0092505859219</v>
+        <v>1.073169825098829</v>
       </c>
       <c r="K23">
-        <v>1.021377080070871</v>
+        <v>1.073173719877383</v>
       </c>
       <c r="L23">
-        <v>1.00723284332672</v>
+        <v>1.070250422641943</v>
       </c>
       <c r="M23">
-        <v>1.021620293638591</v>
+        <v>1.082409204837558</v>
       </c>
       <c r="N23">
-        <v>1.010683837516569</v>
+        <v>1.074693849344769</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9960626342900105</v>
+        <v>1.069392304672048</v>
       </c>
       <c r="D24">
-        <v>1.020407993054221</v>
+        <v>1.071806205044925</v>
       </c>
       <c r="E24">
-        <v>1.006216053236378</v>
+        <v>1.068929107850397</v>
       </c>
       <c r="F24">
-        <v>1.021465083707176</v>
+        <v>1.081231139927793</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04929410777</v>
+        <v>1.053100840822481</v>
       </c>
       <c r="J24">
-        <v>1.023713096878558</v>
+        <v>1.075365412842653</v>
       </c>
       <c r="K24">
-        <v>1.034085955524948</v>
+        <v>1.075055893444502</v>
       </c>
       <c r="L24">
-        <v>1.020134880344848</v>
+        <v>1.072188141757944</v>
       </c>
       <c r="M24">
-        <v>1.035125450233924</v>
+        <v>1.084450595032872</v>
       </c>
       <c r="N24">
-        <v>1.025166886897659</v>
+        <v>1.076892555075026</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015019212651936</v>
+        <v>1.072515523315945</v>
       </c>
       <c r="D25">
-        <v>1.035484986422367</v>
+        <v>1.074286574996784</v>
       </c>
       <c r="E25">
-        <v>1.021529561080746</v>
+        <v>1.071471712315055</v>
       </c>
       <c r="F25">
-        <v>1.037406628408116</v>
+        <v>1.083892693200351</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056547047138198</v>
+        <v>1.054053712876023</v>
       </c>
       <c r="J25">
-        <v>1.039051480898332</v>
+        <v>1.077895958465774</v>
       </c>
       <c r="K25">
-        <v>1.047556331228988</v>
+        <v>1.077222869182911</v>
       </c>
       <c r="L25">
-        <v>1.033802604994779</v>
+        <v>1.074416199811063</v>
       </c>
       <c r="M25">
-        <v>1.049450736936172</v>
+        <v>1.086801374577768</v>
       </c>
       <c r="N25">
-        <v>1.040527053182078</v>
+        <v>1.07942669436319</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_173/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_173/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.07499425108742</v>
+        <v>1.028995819599326</v>
       </c>
       <c r="D2">
-        <v>1.076253472388214</v>
+        <v>1.046617641479944</v>
       </c>
       <c r="E2">
-        <v>1.07348554169521</v>
+        <v>1.032826937512541</v>
       </c>
       <c r="F2">
-        <v>1.086003307877306</v>
+        <v>1.049180282004005</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054802528083302</v>
+        <v>1.061839352239441</v>
       </c>
       <c r="J2">
-        <v>1.079900940123972</v>
+        <v>1.050342555708424</v>
       </c>
       <c r="K2">
-        <v>1.078937891146819</v>
+        <v>1.05746358745524</v>
       </c>
       <c r="L2">
-        <v>1.076177276851737</v>
+        <v>1.043847127303441</v>
       </c>
       <c r="M2">
-        <v>1.088662275811955</v>
+        <v>1.05999447768169</v>
       </c>
       <c r="N2">
-        <v>1.081434523325317</v>
+        <v>1.051834162613505</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.076787220193332</v>
+        <v>1.038588792882275</v>
       </c>
       <c r="D3">
-        <v>1.077675242730861</v>
+        <v>1.054264239504068</v>
       </c>
       <c r="E3">
-        <v>1.074939850313757</v>
+        <v>1.040580485388306</v>
       </c>
       <c r="F3">
-        <v>1.087528996447818</v>
+        <v>1.057268653216596</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055339866425509</v>
+        <v>1.065438078079973</v>
       </c>
       <c r="J3">
-        <v>1.081349265876032</v>
+        <v>1.058080045072052</v>
       </c>
       <c r="K3">
-        <v>1.080175653059034</v>
+        <v>1.064246868587295</v>
       </c>
       <c r="L3">
-        <v>1.077446962386984</v>
+        <v>1.050719182080458</v>
       </c>
       <c r="M3">
-        <v>1.090005565242516</v>
+        <v>1.067217681675094</v>
       </c>
       <c r="N3">
-        <v>1.08288490586607</v>
+        <v>1.059582640099532</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.077944355623699</v>
+        <v>1.04456832178417</v>
       </c>
       <c r="D4">
-        <v>1.078592360279645</v>
+        <v>1.059032063325446</v>
       </c>
       <c r="E4">
-        <v>1.075877320550639</v>
+        <v>1.04541203506536</v>
       </c>
       <c r="F4">
-        <v>1.08851316447669</v>
+        <v>1.062312635403182</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055684653773225</v>
+        <v>1.067665157219959</v>
       </c>
       <c r="J4">
-        <v>1.082283067181963</v>
+        <v>1.062896812075017</v>
       </c>
       <c r="K4">
-        <v>1.08097317958819</v>
+        <v>1.068466637217617</v>
       </c>
       <c r="L4">
-        <v>1.078264453329895</v>
+        <v>1.054991611274896</v>
       </c>
       <c r="M4">
-        <v>1.090871201127672</v>
+        <v>1.071712962125873</v>
       </c>
       <c r="N4">
-        <v>1.083820033276965</v>
+        <v>1.064406247464132</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.078430104880324</v>
+        <v>1.047031396355858</v>
       </c>
       <c r="D5">
-        <v>1.078977243172409</v>
+        <v>1.060996237253359</v>
       </c>
       <c r="E5">
-        <v>1.076270593194879</v>
+        <v>1.047401740905275</v>
       </c>
       <c r="F5">
-        <v>1.088926190814145</v>
+        <v>1.064390748619704</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055828912229495</v>
+        <v>1.0685785969015</v>
       </c>
       <c r="J5">
-        <v>1.08267484558357</v>
+        <v>1.064879365962093</v>
       </c>
       <c r="K5">
-        <v>1.08130765999106</v>
+        <v>1.070202720380849</v>
       </c>
       <c r="L5">
-        <v>1.078607162403636</v>
+        <v>1.056748725741908</v>
       </c>
       <c r="M5">
-        <v>1.091234274223479</v>
+        <v>1.073562830514578</v>
       </c>
       <c r="N5">
-        <v>1.08421236804884</v>
+        <v>1.06639161680513</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.07851162312367</v>
+        <v>1.047442086300959</v>
       </c>
       <c r="D6">
-        <v>1.079041827568053</v>
+        <v>1.06132375033285</v>
       </c>
       <c r="E6">
-        <v>1.076336576545025</v>
+        <v>1.047733468602378</v>
       </c>
       <c r="F6">
-        <v>1.08899549804115</v>
+        <v>1.064737270549274</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055853093552442</v>
+        <v>1.068730669217714</v>
       </c>
       <c r="J6">
-        <v>1.082740580860722</v>
+        <v>1.065209840839805</v>
       </c>
       <c r="K6">
-        <v>1.081363774153669</v>
+        <v>1.070492065631349</v>
       </c>
       <c r="L6">
-        <v>1.07866464859745</v>
+        <v>1.057041538391681</v>
       </c>
       <c r="M6">
-        <v>1.091295186885361</v>
+        <v>1.073871165273655</v>
       </c>
       <c r="N6">
-        <v>1.084278196677624</v>
+        <v>1.066722560995074</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.077950848998573</v>
+        <v>1.044601428072299</v>
       </c>
       <c r="D7">
-        <v>1.078597505732851</v>
+        <v>1.059058463166151</v>
       </c>
       <c r="E7">
-        <v>1.075882578760422</v>
+        <v>1.045438780941391</v>
       </c>
       <c r="F7">
-        <v>1.088518686157401</v>
+        <v>1.062340565979691</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055686584065774</v>
+        <v>1.067677450485972</v>
       </c>
       <c r="J7">
-        <v>1.082288305236683</v>
+        <v>1.062923465931777</v>
       </c>
       <c r="K7">
-        <v>1.080977652058563</v>
+        <v>1.068489980487465</v>
       </c>
       <c r="L7">
-        <v>1.078269036396178</v>
+        <v>1.055015239867479</v>
       </c>
       <c r="M7">
-        <v>1.090876055812469</v>
+        <v>1.071737833627611</v>
       </c>
       <c r="N7">
-        <v>1.083825278770323</v>
+        <v>1.064432939172425</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.075600831711739</v>
+        <v>1.032287400071214</v>
       </c>
       <c r="D8">
-        <v>1.076734566418601</v>
+        <v>1.049240959721091</v>
       </c>
       <c r="E8">
-        <v>1.073977778383468</v>
+        <v>1.03548756688227</v>
       </c>
       <c r="F8">
-        <v>1.086519561997579</v>
+        <v>1.051955011909136</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054984729332696</v>
+        <v>1.063077528322812</v>
       </c>
       <c r="J8">
-        <v>1.080391112805922</v>
+        <v>1.052998741977122</v>
       </c>
       <c r="K8">
-        <v>1.079356907016283</v>
+        <v>1.059792816497243</v>
       </c>
       <c r="L8">
-        <v>1.076607225630615</v>
+        <v>1.046207370827439</v>
       </c>
       <c r="M8">
-        <v>1.089116991938978</v>
+        <v>1.062474369961938</v>
       </c>
       <c r="N8">
-        <v>1.0819253921087</v>
+        <v>1.054494120971373</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.071435821654752</v>
+        <v>1.008647147484026</v>
       </c>
       <c r="D9">
-        <v>1.073429358209535</v>
+        <v>1.030413741319036</v>
       </c>
       <c r="E9">
-        <v>1.070593364852069</v>
+        <v>1.016380274973578</v>
       </c>
       <c r="F9">
-        <v>1.082972854030022</v>
+        <v>1.032044154659243</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053725455071408</v>
+        <v>1.054117664117973</v>
       </c>
       <c r="J9">
-        <v>1.077021667396773</v>
+        <v>1.033898204924035</v>
       </c>
       <c r="K9">
-        <v>1.076474483700843</v>
+        <v>1.04303192262719</v>
       </c>
       <c r="L9">
-        <v>1.073647075865999</v>
+        <v>1.029213068523638</v>
       </c>
       <c r="M9">
-        <v>1.085989447744839</v>
+        <v>1.044637883792061</v>
       </c>
       <c r="N9">
-        <v>1.078551161700589</v>
+        <v>1.035366458964809</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.068641998734597</v>
+        <v>0.9912556223111083</v>
       </c>
       <c r="D10">
-        <v>1.071210011937267</v>
+        <v>1.016589872969834</v>
       </c>
       <c r="E10">
-        <v>1.068317465088462</v>
+        <v>1.002336136471287</v>
       </c>
       <c r="F10">
-        <v>1.080591402605445</v>
+        <v>1.01742861787792</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052870439025612</v>
+        <v>1.047443717902769</v>
       </c>
       <c r="J10">
-        <v>1.074756812588438</v>
+        <v>1.019820525487243</v>
       </c>
       <c r="K10">
-        <v>1.074534352731238</v>
+        <v>1.03066591616141</v>
       </c>
       <c r="L10">
-        <v>1.071651436371583</v>
+        <v>1.016663338970957</v>
       </c>
       <c r="M10">
-        <v>1.083884897773128</v>
+        <v>1.031490165447583</v>
       </c>
       <c r="N10">
-        <v>1.076283090538643</v>
+        <v>1.021268787608484</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067427945022333</v>
+        <v>0.983245924308675</v>
       </c>
       <c r="D11">
-        <v>1.070245073660511</v>
+        <v>1.010233233928213</v>
       </c>
       <c r="E11">
-        <v>1.067327128851797</v>
+        <v>0.9958753109813362</v>
       </c>
       <c r="F11">
-        <v>1.079555991060656</v>
+        <v>1.010708978413442</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052496450167042</v>
+        <v>1.044352114765682</v>
       </c>
       <c r="J11">
-        <v>1.07377151521418</v>
+        <v>1.013332692873658</v>
       </c>
       <c r="K11">
-        <v>1.073689700915334</v>
+        <v>1.024964712746308</v>
       </c>
       <c r="L11">
-        <v>1.070781854642414</v>
+        <v>1.010875434364662</v>
       </c>
       <c r="M11">
-        <v>1.082968795997052</v>
+        <v>1.025431725939398</v>
       </c>
       <c r="N11">
-        <v>1.075296393929098</v>
+        <v>1.014771741528423</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066976323983375</v>
+        <v>0.9801890703372025</v>
       </c>
       <c r="D12">
-        <v>1.069886044767402</v>
+        <v>1.007809126544486</v>
       </c>
       <c r="E12">
-        <v>1.066958527586694</v>
+        <v>0.9934111080225907</v>
       </c>
       <c r="F12">
-        <v>1.079170741564424</v>
+        <v>1.008146609741674</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052356961892409</v>
+        <v>1.043169709326204</v>
       </c>
       <c r="J12">
-        <v>1.073404824398138</v>
+        <v>1.010856190574577</v>
       </c>
       <c r="K12">
-        <v>1.073375260111201</v>
+        <v>1.02278822984153</v>
       </c>
       <c r="L12">
-        <v>1.070458017792088</v>
+        <v>1.008665638932755</v>
       </c>
       <c r="M12">
-        <v>1.082627775715854</v>
+        <v>1.023119380346563</v>
       </c>
       <c r="N12">
-        <v>1.074929182370038</v>
+        <v>1.012291722312018</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.067073228754322</v>
+        <v>0.9808486499321704</v>
       </c>
       <c r="D13">
-        <v>1.06996308543163</v>
+        <v>1.008332087238698</v>
       </c>
       <c r="E13">
-        <v>1.067037627849774</v>
+        <v>0.9939427336852409</v>
       </c>
       <c r="F13">
-        <v>1.079253408638895</v>
+        <v>1.008699390079133</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052386908606789</v>
+        <v>1.043424947913702</v>
       </c>
       <c r="J13">
-        <v>1.073483513103566</v>
+        <v>1.011390564516757</v>
       </c>
       <c r="K13">
-        <v>1.073442740613282</v>
+        <v>1.023257876007352</v>
       </c>
       <c r="L13">
-        <v>1.070527519956497</v>
+        <v>1.009142481333197</v>
       </c>
       <c r="M13">
-        <v>1.082700959428784</v>
+        <v>1.023618319276518</v>
       </c>
       <c r="N13">
-        <v>1.075007982822453</v>
+        <v>1.01282685512649</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.067390627617875</v>
+        <v>0.9829949734472351</v>
       </c>
       <c r="D14">
-        <v>1.070215408707119</v>
+        <v>1.010034187994846</v>
       </c>
       <c r="E14">
-        <v>1.06729667547731</v>
+        <v>0.9956729796313863</v>
       </c>
       <c r="F14">
-        <v>1.079524159604238</v>
+        <v>1.010498576179637</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052484931735887</v>
+        <v>1.044255095493826</v>
       </c>
       <c r="J14">
-        <v>1.07374121896508</v>
+        <v>1.013129393748041</v>
       </c>
       <c r="K14">
-        <v>1.073663723492252</v>
+        <v>1.024786047080931</v>
       </c>
       <c r="L14">
-        <v>1.070755103322168</v>
+        <v>1.010694037840872</v>
       </c>
       <c r="M14">
-        <v>1.082940622325767</v>
+        <v>1.025241896734015</v>
       </c>
       <c r="N14">
-        <v>1.075266054655849</v>
+        <v>1.014568153694729</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.067586098491865</v>
+        <v>0.9843062454617892</v>
       </c>
       <c r="D15">
-        <v>1.070370792409324</v>
+        <v>1.011074323574922</v>
       </c>
       <c r="E15">
-        <v>1.067456183878282</v>
+        <v>0.9967302692383457</v>
       </c>
       <c r="F15">
-        <v>1.079690891378663</v>
+        <v>1.011598062260109</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052545250990933</v>
+        <v>1.044761941313257</v>
       </c>
       <c r="J15">
-        <v>1.073899905808226</v>
+        <v>1.014191657859975</v>
       </c>
       <c r="K15">
-        <v>1.073799785221178</v>
+        <v>1.025719588651741</v>
       </c>
       <c r="L15">
-        <v>1.070895213763973</v>
+        <v>1.011641840276033</v>
       </c>
       <c r="M15">
-        <v>1.083088188116858</v>
+        <v>1.026233789772215</v>
       </c>
       <c r="N15">
-        <v>1.075424966852515</v>
+        <v>1.015631926343545</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.068722478981061</v>
+        <v>0.9917763184911711</v>
       </c>
       <c r="D16">
-        <v>1.071273967292176</v>
+        <v>1.017003340820773</v>
       </c>
       <c r="E16">
-        <v>1.06838308670352</v>
+        <v>1.002756327031272</v>
       </c>
       <c r="F16">
-        <v>1.080660028995699</v>
+        <v>1.017865719348281</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052895179587184</v>
+        <v>1.047644343817816</v>
       </c>
       <c r="J16">
-        <v>1.074822105215418</v>
+        <v>1.020242214137962</v>
       </c>
       <c r="K16">
-        <v>1.074590312170332</v>
+        <v>1.031036437638367</v>
       </c>
       <c r="L16">
-        <v>1.071709031347483</v>
+        <v>1.017039460849328</v>
       </c>
       <c r="M16">
-        <v>1.083945593609326</v>
+        <v>1.031883971759724</v>
       </c>
       <c r="N16">
-        <v>1.076348475888643</v>
+        <v>1.021691075105456</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.069434132558719</v>
+        <v>0.9963275407950415</v>
       </c>
       <c r="D17">
-        <v>1.071839437925339</v>
+        <v>1.020618469093749</v>
       </c>
       <c r="E17">
-        <v>1.068963196414447</v>
+        <v>1.006429916620933</v>
       </c>
       <c r="F17">
-        <v>1.081266800092816</v>
+        <v>1.021687602980279</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053113668586971</v>
+        <v>1.049395961424508</v>
       </c>
       <c r="J17">
-        <v>1.075399333422478</v>
+        <v>1.023927581405704</v>
       </c>
       <c r="K17">
-        <v>1.075084957497684</v>
+        <v>1.034274388452261</v>
       </c>
       <c r="L17">
-        <v>1.072218045702767</v>
+        <v>1.020326137612571</v>
       </c>
       <c r="M17">
-        <v>1.084482120702832</v>
+        <v>1.035325763324167</v>
       </c>
       <c r="N17">
-        <v>1.076926523825965</v>
+        <v>1.025381676017436</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.069848813559334</v>
+        <v>0.9989367160205831</v>
       </c>
       <c r="D18">
-        <v>1.07216888759602</v>
+        <v>1.022691889988856</v>
       </c>
       <c r="E18">
-        <v>1.069301097134156</v>
+        <v>1.008536592118269</v>
       </c>
       <c r="F18">
-        <v>1.081620312648629</v>
+        <v>1.023879701265312</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053240747098501</v>
+        <v>1.050398471451566</v>
       </c>
       <c r="J18">
-        <v>1.075735578122712</v>
+        <v>1.026039953213679</v>
       </c>
       <c r="K18">
-        <v>1.075373036511914</v>
+        <v>1.036130099511459</v>
       </c>
       <c r="L18">
-        <v>1.072514419743662</v>
+        <v>1.022209582010347</v>
       </c>
       <c r="M18">
-        <v>1.084794604090903</v>
+        <v>1.037298588900274</v>
       </c>
       <c r="N18">
-        <v>1.077263246032242</v>
+        <v>1.02749704763567</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.069990139358336</v>
+        <v>0.9998189296756038</v>
       </c>
       <c r="D19">
-        <v>1.072281157450482</v>
+        <v>1.023393097401246</v>
       </c>
       <c r="E19">
-        <v>1.069416233758728</v>
+        <v>1.009248997398472</v>
       </c>
       <c r="F19">
-        <v>1.081740782795398</v>
+        <v>1.024621059820076</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053284016325874</v>
+        <v>1.050737150756091</v>
       </c>
       <c r="J19">
-        <v>1.075850154270537</v>
+        <v>1.026754112122424</v>
       </c>
       <c r="K19">
-        <v>1.075471189932302</v>
+        <v>1.036757447460886</v>
       </c>
       <c r="L19">
-        <v>1.072615386983813</v>
+        <v>1.022846270818742</v>
       </c>
       <c r="M19">
-        <v>1.084901074649998</v>
+        <v>1.037965577297564</v>
       </c>
       <c r="N19">
-        <v>1.077377984891338</v>
+        <v>1.02821222073198</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.069357821881264</v>
+        <v>0.9958440058415357</v>
       </c>
       <c r="D20">
-        <v>1.071778807668221</v>
+        <v>1.020234291362174</v>
       </c>
       <c r="E20">
-        <v>1.068901004604227</v>
+        <v>1.006039554462797</v>
       </c>
       <c r="F20">
-        <v>1.081201741488132</v>
+        <v>1.021281443511258</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053090264323452</v>
+        <v>1.049210037972351</v>
       </c>
       <c r="J20">
-        <v>1.075337448212113</v>
+        <v>1.023536079508547</v>
       </c>
       <c r="K20">
-        <v>1.075031932269189</v>
+        <v>1.033930437727463</v>
       </c>
       <c r="L20">
-        <v>1.072163487739561</v>
+        <v>1.019977030454854</v>
       </c>
       <c r="M20">
-        <v>1.084424604506828</v>
+        <v>1.03496012912647</v>
       </c>
       <c r="N20">
-        <v>1.076864550731503</v>
+        <v>1.024989618142678</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.067297180149067</v>
+        <v>0.9823652775672677</v>
       </c>
       <c r="D21">
-        <v>1.070141122691824</v>
+        <v>1.009534765334636</v>
       </c>
       <c r="E21">
-        <v>1.067220413143484</v>
+        <v>0.9951653080319015</v>
       </c>
       <c r="F21">
-        <v>1.079444448312054</v>
+        <v>1.009970662398699</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052456082219206</v>
+        <v>1.044011611209567</v>
       </c>
       <c r="J21">
-        <v>1.073665350674849</v>
+        <v>1.012619260843318</v>
       </c>
       <c r="K21">
-        <v>1.073598668966095</v>
+        <v>1.024337722559854</v>
       </c>
       <c r="L21">
-        <v>1.070688108883408</v>
+        <v>1.010238857704634</v>
       </c>
       <c r="M21">
-        <v>1.082870068109349</v>
+        <v>1.024765568040445</v>
       </c>
       <c r="N21">
-        <v>1.075190078623944</v>
+        <v>1.014057296342768</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065997701299823</v>
+        <v>0.9734116734331492</v>
       </c>
       <c r="D22">
-        <v>1.069107920779774</v>
+        <v>1.002438528429432</v>
       </c>
       <c r="E22">
-        <v>1.06615943239332</v>
+        <v>0.987951105713502</v>
       </c>
       <c r="F22">
-        <v>1.078335790415402</v>
+        <v>1.002470029767711</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052054032846256</v>
+        <v>1.040543751496944</v>
       </c>
       <c r="J22">
-        <v>1.072609934959805</v>
+        <v>1.005364896106741</v>
       </c>
       <c r="K22">
-        <v>1.072693465185253</v>
+        <v>1.017961831885342</v>
       </c>
       <c r="L22">
-        <v>1.06975563792634</v>
+        <v>1.00376509294738</v>
       </c>
       <c r="M22">
-        <v>1.081888384260129</v>
+        <v>1.017992713181481</v>
       </c>
       <c r="N22">
-        <v>1.074133164097527</v>
+        <v>1.006792629576178</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.066686953317654</v>
+        <v>0.9782073293191097</v>
       </c>
       <c r="D23">
-        <v>1.069655979755487</v>
+        <v>1.006238169881147</v>
       </c>
       <c r="E23">
-        <v>1.0667222940414</v>
+        <v>0.9918140755703997</v>
       </c>
       <c r="F23">
-        <v>1.078923874583742</v>
+        <v>1.006486102143005</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05226748333084</v>
+        <v>1.042402478706444</v>
       </c>
       <c r="J23">
-        <v>1.073169825098829</v>
+        <v>1.0092505859219</v>
       </c>
       <c r="K23">
-        <v>1.073173719877383</v>
+        <v>1.021377080070872</v>
       </c>
       <c r="L23">
-        <v>1.070250422641943</v>
+        <v>1.00723284332672</v>
       </c>
       <c r="M23">
-        <v>1.082409204837558</v>
+        <v>1.021620293638591</v>
       </c>
       <c r="N23">
-        <v>1.074693849344769</v>
+        <v>1.010683837516569</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.069392304672048</v>
+        <v>0.9960626342900112</v>
       </c>
       <c r="D24">
-        <v>1.071806205044925</v>
+        <v>1.020407993054222</v>
       </c>
       <c r="E24">
-        <v>1.068929107850397</v>
+        <v>1.006216053236379</v>
       </c>
       <c r="F24">
-        <v>1.081231139927793</v>
+        <v>1.021465083707176</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053100840822481</v>
+        <v>1.04929410777</v>
       </c>
       <c r="J24">
-        <v>1.075365412842653</v>
+        <v>1.023713096878559</v>
       </c>
       <c r="K24">
-        <v>1.075055893444502</v>
+        <v>1.034085955524949</v>
       </c>
       <c r="L24">
-        <v>1.072188141757944</v>
+        <v>1.020134880344849</v>
       </c>
       <c r="M24">
-        <v>1.084450595032872</v>
+        <v>1.035125450233924</v>
       </c>
       <c r="N24">
-        <v>1.076892555075026</v>
+        <v>1.02516688689766</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.072515523315945</v>
+        <v>1.015019212651936</v>
       </c>
       <c r="D25">
-        <v>1.074286574996784</v>
+        <v>1.035484986422367</v>
       </c>
       <c r="E25">
-        <v>1.071471712315055</v>
+        <v>1.021529561080746</v>
       </c>
       <c r="F25">
-        <v>1.083892693200351</v>
+        <v>1.037406628408117</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054053712876023</v>
+        <v>1.056547047138198</v>
       </c>
       <c r="J25">
-        <v>1.077895958465774</v>
+        <v>1.039051480898332</v>
       </c>
       <c r="K25">
-        <v>1.077222869182911</v>
+        <v>1.047556331228988</v>
       </c>
       <c r="L25">
-        <v>1.074416199811063</v>
+        <v>1.033802604994779</v>
       </c>
       <c r="M25">
-        <v>1.086801374577768</v>
+        <v>1.049450736936173</v>
       </c>
       <c r="N25">
-        <v>1.07942669436319</v>
+        <v>1.040527053182078</v>
       </c>
     </row>
   </sheetData>
